--- a/logging_frameworks/R Logging framework comparisson.xlsx
+++ b/logging_frameworks/R Logging framework comparisson.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Comparission" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Comparison" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Notes - Notes" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -289,8 +289,7 @@
     <t>Uses numeric priority levels (no names)</t>
   </si>
   <si>
-    <t>printlog(..., level = 0, ts = TRUE, cr = TRUE, flag = FALSE, flush = FALSE)
-</t>
+    <t>printlog(..., level = 0, ts = TRUE, cr = TRUE, flag = FALSE, flush = FALSE)</t>
   </si>
   <si>
     <r>
@@ -466,8 +465,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF33CC66"/>
+        <bgColor rgb="FF339966"/>
       </patternFill>
     </fill>
     <fill>
@@ -478,8 +477,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF33CC66"/>
-        <bgColor rgb="FF339966"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -676,11 +675,11 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.9"/>
@@ -800,7 +799,7 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="176.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -862,7 +861,7 @@
       <c r="H8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="140.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="6" t="s">
